--- a/va_facility_data_2025-02-20/Loma Linda VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Loma%20Linda%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Loma Linda VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Loma%20Linda%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R70d0a6d219184d1b86e2a755f3691f76"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3d526b8e18fa4d7fa92edbec0c2c8629"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0070cf7ac9384823b17174ada0b401f2"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb291dc1660cb4173b807e1c1c7780174"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2737fd8d9e6f4494af6c3c25ca82153f"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb25b88e057f242619415f6de1c938407"/>
   </x:sheets>
 </x:workbook>
 </file>
